--- a/Excel-XLSX/UN-COI.xlsx
+++ b/Excel-XLSX/UN-COI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,133 @@
     <t>1</t>
   </si>
   <si>
-    <t>kZ8qR2</t>
+    <t>uB7V9Q</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>COB</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>COI</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>1990</t>
@@ -102,136 +228,16 @@
     <t>UKN</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>COI</t>
-  </si>
-  <si>
-    <t>COM</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>UNK</t>
   </si>
   <si>
     <t>60</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>13</t>
   </si>
   <si>
     <t>1999</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>COB</t>
-  </si>
-  <si>
-    <t>COG</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>Central African Rep.</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>CAF</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
 </sst>
 </file>
@@ -616,7 +622,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -736,28 +742,28 @@
         <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -771,22 +777,22 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -804,28 +810,28 @@
         <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
@@ -839,10 +845,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -869,31 +875,31 @@
         <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5">
@@ -907,22 +913,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>29</v>
@@ -937,31 +943,31 @@
         <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +981,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
@@ -1005,31 +1011,31 @@
         <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -1043,22 +1049,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
@@ -1073,31 +1079,31 @@
         <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -1111,22 +1117,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
@@ -1141,31 +1147,31 @@
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1179,22 +1185,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1209,31 +1215,31 @@
         <v>32</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1247,10 +1253,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>58</v>
@@ -1277,31 +1283,31 @@
         <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -1315,22 +1321,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1345,31 +1351,31 @@
         <v>32</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -1383,22 +1389,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1413,31 +1419,167 @@
         <v>32</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>33</v>
+      <c r="Q13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-COI.xlsx
+++ b/Excel-XLSX/UN-COI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,46 @@
     <t>1</t>
   </si>
   <si>
-    <t>uB7V9Q</t>
+    <t>10jNTi</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>COI</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>2000</t>
@@ -105,42 +144,18 @@
     <t>COG</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>COI</t>
-  </si>
-  <si>
-    <t>COM</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>2001</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>2002</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
@@ -153,27 +168,27 @@
     <t>7</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>2021</t>
   </si>
   <si>
     <t>27</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>2022</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>1992</t>
   </si>
   <si>
@@ -189,7 +204,7 @@
     <t>350</t>
   </si>
   <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>161</t>
@@ -201,7 +216,7 @@
     <t>RWA</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>211</t>
@@ -213,7 +228,7 @@
     <t>YEM</t>
   </si>
   <si>
-    <t>11</t>
+    <t>13</t>
   </si>
   <si>
     <t>1990</t>
@@ -234,7 +249,7 @@
     <t>60</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>1999</t>
@@ -622,7 +637,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -742,28 +757,28 @@
         <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
+      <c r="V2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -783,16 +798,16 @@
         <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -807,31 +822,31 @@
         <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>35</v>
+      <c r="V3" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -845,22 +860,22 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -878,28 +893,28 @@
         <v>34</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>35</v>
+      <c r="V4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -913,22 +928,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>29</v>
@@ -943,31 +958,31 @@
         <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>35</v>
+      <c r="V5" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -981,22 +996,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
@@ -1011,31 +1026,31 @@
         <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>35</v>
+      <c r="V6" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1049,22 +1064,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
@@ -1079,31 +1094,31 @@
         <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1117,22 +1132,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
@@ -1147,31 +1162,31 @@
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1185,22 +1200,22 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1218,28 +1233,28 @@
         <v>34</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>35</v>
+      <c r="V9" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1253,10 +1268,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>58</v>
@@ -1283,31 +1298,31 @@
         <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>35</v>
+      <c r="V10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1321,22 +1336,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1351,31 +1366,31 @@
         <v>32</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1389,22 +1404,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1425,25 +1440,25 @@
         <v>34</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1457,10 +1472,10 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>67</v>
@@ -1472,7 +1487,7 @@
         <v>69</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -1490,28 +1505,28 @@
         <v>34</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>35</v>
+      <c r="V13" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1525,22 +1540,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
@@ -1555,31 +1570,99 @@
         <v>32</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="V14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-COI.xlsx
+++ b/Excel-XLSX/UN-COI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,6 +90,150 @@
     <t>10jNTi</t>
   </si>
   <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>COI</t>
+  </si>
+  <si>
+    <t>COM</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>LBR</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>COB</t>
+  </si>
+  <si>
+    <t>COG</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>RWA</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Dem. Rep. of the Congo</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>YEM</t>
+  </si>
+  <si>
     <t>2023</t>
   </si>
   <si>
@@ -105,154 +249,22 @@
     <t>CAF</t>
   </si>
   <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>COI</t>
-  </si>
-  <si>
-    <t>COM</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>COB</t>
-  </si>
-  <si>
-    <t>COG</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>Dem. Rep. of the Congo</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>LBR</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>RWA</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>YEM</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
-    <t>1999</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
 </sst>
 </file>
@@ -637,7 +649,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -807,7 +819,7 @@
         <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -822,13 +834,13 @@
         <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>33</v>
@@ -866,16 +878,16 @@
         <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>29</v>
@@ -890,7 +902,7 @@
         <v>32</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>33</v>
@@ -928,22 +940,22 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>29</v>
@@ -958,13 +970,13 @@
         <v>32</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>33</v>
@@ -996,22 +1008,22 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>29</v>
@@ -1026,7 +1038,7 @@
         <v>32</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>33</v>
@@ -1064,22 +1076,22 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>29</v>
@@ -1094,7 +1106,7 @@
         <v>32</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>33</v>
@@ -1132,22 +1144,22 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>29</v>
@@ -1162,7 +1174,7 @@
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>33</v>
@@ -1203,19 +1215,19 @@
         <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>29</v>
@@ -1230,13 +1242,13 @@
         <v>32</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>33</v>
@@ -1268,22 +1280,22 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1298,13 +1310,13 @@
         <v>32</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>33</v>
@@ -1336,22 +1348,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>29</v>
@@ -1366,7 +1378,7 @@
         <v>32</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>33</v>
@@ -1404,22 +1416,22 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>29</v>
@@ -1437,7 +1449,7 @@
         <v>33</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>33</v>
@@ -1472,22 +1484,22 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>29</v>
@@ -1502,13 +1514,13 @@
         <v>32</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>33</v>
@@ -1540,22 +1552,22 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>29</v>
@@ -1570,13 +1582,13 @@
         <v>32</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>33</v>
@@ -1608,22 +1620,22 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>29</v>
@@ -1638,7 +1650,7 @@
         <v>32</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>33</v>
@@ -1662,6 +1674,210 @@
         <v>35</v>
       </c>
       <c r="V15" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V18" s="2" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-COI.xlsx
+++ b/Excel-XLSX/UN-COI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>10jNTi</t>
+    <t>Mn0RyZ</t>
   </si>
   <si>
     <t>1990</t>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>16</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>SUD</t>
+  </si>
+  <si>
+    <t>SDN</t>
   </si>
   <si>
     <t>17</t>
@@ -1694,16 +1706,16 @@
         <v>80</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>29</v>
@@ -1721,10 +1733,10 @@
         <v>33</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>33</v>
@@ -1762,16 +1774,16 @@
         <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>29</v>
@@ -1789,7 +1801,7 @@
         <v>33</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>33</v>
@@ -1824,7 +1836,7 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>80</v>
